--- a/Priset/Skill.xlsx
+++ b/Priset/Skill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>#Skill[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,13 @@
   </si>
   <si>
     <t>셀프 스킬인지 확인 여부 0: x 1: 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillNeedValue</t>
+  </si>
+  <si>
+    <t>스킬 사용량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +439,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -444,6 +451,7 @@
     <col min="5" max="5" width="39.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -465,6 +473,9 @@
       <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
@@ -488,7 +499,9 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
@@ -511,6 +524,9 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
@@ -532,6 +548,9 @@
       </c>
       <c r="G4" s="1">
         <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
